--- a/testdata/citiFD.xlsx
+++ b/testdata/citiFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E00F03-E3C3-4775-B3E2-335756D6E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD622D-7A6A-4593-AA89-7535A36106FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3E6E099-EB9D-4C35-ACC8-8D0AF105A279}"/>
+    <workbookView xWindow="4800" yWindow="850" windowWidth="14400" windowHeight="7270" xr2:uid="{F3E6E099-EB9D-4C35-ACC8-8D0AF105A279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Initial Deposit amount</t>
   </si>
@@ -51,12 +51,6 @@
     <t>$1,083.14</t>
   </si>
   <si>
-    <t>$1,623.65</t>
-  </si>
-  <si>
-    <t>$3,244.80</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
@@ -66,16 +60,22 @@
     <t>Actual</t>
   </si>
   <si>
+    <t>$1,624.82</t>
+  </si>
+  <si>
+    <t>$3,249.43</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -100,13 +100,13 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,8 +115,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,35 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +458,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -526,8 +506,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s" s="27">
-        <v>16</v>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -546,8 +529,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="22">
-        <v>16</v>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -564,9 +550,12 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s" s="23">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="5">
         <v>15</v>
       </c>
     </row>
@@ -584,9 +573,12 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="6">
         <v>15</v>
       </c>
     </row>
@@ -604,10 +596,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="25">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
